--- a/biology/Médecine/Association_pour_les_malades_vulnérables_et_marginalisés/Association_pour_les_malades_vulnérables_et_marginalisés.xlsx
+++ b/biology/Médecine/Association_pour_les_malades_vulnérables_et_marginalisés/Association_pour_les_malades_vulnérables_et_marginalisés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_pour_les_malades_vuln%C3%A9rables_et_marginalis%C3%A9s</t>
+          <t>Association_pour_les_malades_vulnérables_et_marginalisés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association pour les malades vulnérables et marginalisés (AMAVM) est une organisation non gouvernementale de la République démocratique du Congo s'occupant de l'aide aux patients qui sont rendus vulnérables par leur maladie, leur condition socio-économique etc.
 Depuis 2005, à Lubumbashi, l'AMAVM a réalisé des projets d'aide notamment auprès des malades  tuberculeux, projet qui consiste à permettre un accompagnement psycho-socio-économique pouvant aider ces personnes à bien poursuivre leur traitement et réussir leur intégration dans la société. 
